--- a/selmor/src/main/resources/fbtestcase.xlsx
+++ b/selmor/src/main/resources/fbtestcase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="11310" windowHeight="3645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="11310" windowHeight="3300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>testcaseid</t>
   </si>
@@ -171,9 +171,6 @@
     <t>mobile</t>
   </si>
   <si>
-    <t>sateesh</t>
-  </si>
-  <si>
     <t>kumar</t>
   </si>
   <si>
@@ -181,13 +178,24 @@
   </si>
   <si>
     <t>passed</t>
+  </si>
+  <si>
+    <t>sateesh@gmail.com</t>
+  </si>
+  <si>
+    <t>sateh@gmail.com</t>
+  </si>
+  <si>
+    <t>passh@gmail.com</t>
+  </si>
+  <si>
+    <t>sahah</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -226,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -234,6 +242,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -541,7 +550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -557,15 +566,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.5703125"/>
-    <col min="2" max="2" customWidth="true" style="1" width="27.85546875"/>
-    <col min="3" max="3" customWidth="true" style="1" width="46.7109375"/>
-    <col min="4" max="4" customWidth="true" style="1" width="26.140625"/>
-    <col min="5" max="5" customWidth="true" style="1" width="53.42578125"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -582,7 +591,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -599,7 +608,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -616,7 +625,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="60">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -633,7 +642,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -650,7 +659,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -667,7 +676,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="45">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -684,7 +693,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -701,7 +710,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="30">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -727,58 +736,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.140625"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2">
+        <v>7893636382</v>
+      </c>
+      <c r="E2">
+        <v>8.5</v>
+      </c>
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="F1" t="s" s="0">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="0">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="D2" s="0">
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3">
         <v>7893636382</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E3">
         <v>8.5</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>49</v>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>7893636382</v>
+      </c>
+      <c r="E4">
+        <v>8.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>